--- a/data/dataset/2022빅콘테스트_데이터분석분야_챔피언부문_데이터정의서_220915.xlsx
+++ b/data/dataset/2022빅콘테스트_데이터분석분야_챔피언부문_데이터정의서_220915.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suin\OneDrive - 한국정보통신진흥협회\바탕 화면\업무\00 데이터전략팀\02 기존사업\02 NIA_데이터 활용문화 조성 지원사업\2022 빅콘테스트\데이터 정의서\챔피언부문\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel0\OneDrive\바탕 화면\ev-station-opt\data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F5ECA1-1D21-457E-A4B3-11BE2456F1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4622EAD-B810-4723-ADF8-FE1ED473861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="1545" windowWidth="22080" windowHeight="13995" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="819" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1)거주자기준 전기차앱실행" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="254">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -819,6 +819,37 @@
   </si>
   <si>
     <t>2022.6.1~ 2022. 6.30 까지의 용인시 거주자의 타지역 전기차 앱실행 고객수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일</t>
+  </si>
+  <si>
+    <t>요일상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1724,9 +1755,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1883,23 +1911,32 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2295,93 +2332,93 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="45.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="26" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="17.5" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2406,7 +2443,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2421,7 +2458,7 @@
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2441,12 +2478,12 @@
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2486,7 +2523,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2526,7 +2563,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2566,7 +2603,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2606,7 +2643,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2625,7 +2662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" thickBot="1">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -2677,15 +2714,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
     <col min="8" max="14" width="12.5" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
@@ -3583,93 +3620,93 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="45.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="26" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="17.5" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3694,7 +3731,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3709,7 +3746,7 @@
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3729,12 +3766,12 @@
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3774,7 +3811,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3814,7 +3851,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3854,7 +3891,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3894,7 +3931,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3913,7 +3950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" thickBot="1">
+    <row r="18" spans="1:6" ht="16.5" thickBot="1">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -3956,19 +3993,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7419975-DE50-4704-B9CC-EA068E039508}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
     <col min="8" max="14" width="12.5" style="8" customWidth="1"/>
     <col min="15" max="16384" width="9" style="8"/>
   </cols>
@@ -4866,93 +4903,93 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="45.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="26" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="17.5" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4977,7 +5014,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4997,7 +5034,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5017,7 +5054,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5032,12 +5069,12 @@
       <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -5052,12 +5089,12 @@
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -5077,7 +5114,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5097,7 +5134,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -5117,7 +5154,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5137,7 +5174,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5157,7 +5194,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -5177,7 +5214,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -5197,7 +5234,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -5217,7 +5254,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -5236,7 +5273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" thickBot="1">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -5284,21 +5321,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6A5D6B-5A38-4129-A5DC-0B2458C06610}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
     <col min="8" max="14" width="12.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.58203125" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
@@ -6316,147 +6353,147 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="2"/>
@@ -6480,11 +6517,11 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -6494,580 +6531,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="74"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24">
-      <c r="A4" s="71"/>
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="70"/>
+      <c r="B4" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="71"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="71"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24">
-      <c r="A7" s="71"/>
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:6" ht="26">
+      <c r="A7" s="70"/>
+      <c r="B7" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="71"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="70"/>
+      <c r="B9" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="71"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="46" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="71"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="46" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24">
-      <c r="A12" s="71"/>
-      <c r="B12" s="45" t="s">
+    <row r="12" spans="1:6" ht="26">
+      <c r="A12" s="70"/>
+      <c r="B12" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="72"/>
+      <c r="E12" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="71"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="40" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="71"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="40" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="71"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="46" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="74"/>
+      <c r="E15" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="71"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="71"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="71"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="40" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="71"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="71"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="71"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="46" t="s">
+      <c r="A22" s="70"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="40" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="71"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="46" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="71" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="39" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="71"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="40" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="71"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="39" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="71"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="46" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="71"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="71"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="46" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="40" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="71"/>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="70"/>
+      <c r="B29" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="24">
-      <c r="A30" s="71"/>
-      <c r="B30" s="45" t="s">
+    <row r="30" spans="1:6" ht="26">
+      <c r="A30" s="70"/>
+      <c r="B30" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="24">
-      <c r="A31" s="71"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="46" t="s">
+    <row r="31" spans="1:6" ht="26">
+      <c r="A31" s="70"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="71"/>
-      <c r="B32" s="54" t="s">
+      <c r="A32" s="70"/>
+      <c r="B32" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="55" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="71"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="55" t="s">
+      <c r="A33" s="70"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="56" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="55" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="24">
-      <c r="A34" s="71"/>
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="70"/>
+      <c r="B34" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="37" t="s">
+    <row r="35" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A35" s="70"/>
+      <c r="B35" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="59" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A7"/>
@@ -7078,6 +7110,11 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7102,82 +7139,126 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="20" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32">
+      <c r="D1" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="32">
+      <c r="D2" s="79">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="32">
+      <c r="D3" s="79">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32">
+      <c r="D4" s="79">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="32">
+      <c r="D5" s="79">
+        <v>4</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="32">
+      <c r="D6" s="79">
+        <v>5</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" s="79">
+        <v>6</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="80">
+        <v>7</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
